--- a/inst/extdata/elmaven_export_corrected.xlsx
+++ b/inst/extdata/elmaven_export_corrected.xlsx
@@ -10,8 +10,7 @@
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Corrected" sheetId="2" r:id="rId2"/>
     <sheet name="Normalized" sheetId="3" r:id="rId3"/>
-    <sheet name="PoolBeforeDF" sheetId="4" r:id="rId4"/>
-    <sheet name="PoolAfterDF" sheetId="5" r:id="rId5"/>
+    <sheet name="PoolAfterDF" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -500,7 +499,7 @@
         <v>6.488872</v>
       </c>
       <c r="G2">
-        <v>0.8251677</v>
+        <v>0.8251676999999999</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -559,7 +558,7 @@
         <v>959005.4</v>
       </c>
       <c r="X2">
-        <v>696402.8000000001</v>
+        <v>696402.8</v>
       </c>
     </row>
     <row r="3">
@@ -1121,34 +1120,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>49590.03581525528</v>
+        <v>49590.03580827155</v>
       </c>
       <c r="D2">
-        <v>4298414.028155819</v>
+        <v>4298414.027550477</v>
       </c>
       <c r="E2">
-        <v>11263498.11402879</v>
+        <v>11263498.10983654</v>
       </c>
       <c r="F2">
-        <v>5587578.778767848</v>
+        <v>5587578.777980953</v>
       </c>
       <c r="G2">
-        <v>4811754.151637585</v>
+        <v>4811754.151716418</v>
       </c>
       <c r="H2">
-        <v>7427287.494261415</v>
+        <v>7427287.494404358</v>
       </c>
       <c r="I2">
-        <v>1587791.396444341</v>
+        <v>1587791.397170781</v>
       </c>
       <c r="J2">
-        <v>1721046.173677584</v>
+        <v>1721046.174482369</v>
       </c>
       <c r="K2">
-        <v>1014043.348369411</v>
+        <v>1014043.348823868</v>
       </c>
       <c r="L2">
-        <v>736255.129670547</v>
+        <v>736255.1300121321</v>
       </c>
     </row>
     <row r="3">
@@ -1173,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>6540.739324207044</v>
+        <v>6540.725256530946</v>
       </c>
       <c r="H3">
-        <v>2835.0319195712</v>
+        <v>2835.01020492135</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1259,16 +1258,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7536.769477132589</v>
+        <v>7525.54849626071</v>
       </c>
       <c r="J5">
-        <v>15818.54027201605</v>
+        <v>15806.37757420834</v>
       </c>
       <c r="K5">
-        <v>2684.831363316891</v>
+        <v>2677.665081377151</v>
       </c>
       <c r="L5">
-        <v>3732.421163158674</v>
+        <v>3727.218020750453</v>
       </c>
     </row>
     <row r="6">
@@ -1287,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9246.688395198382</v>
+        <v>9239.973866565899</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1321,34 +1320,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3364.792893740187</v>
+        <v>3364.792892090155</v>
       </c>
       <c r="D7">
-        <v>223526.2266931118</v>
+        <v>223526.2267004914</v>
       </c>
       <c r="E7">
-        <v>232797.9693327654</v>
+        <v>232797.9692186056</v>
       </c>
       <c r="F7">
-        <v>320924.7204209647</v>
+        <v>320924.7202635892</v>
       </c>
       <c r="G7">
-        <v>416020.651185651</v>
+        <v>416020.6509816424</v>
       </c>
       <c r="H7">
-        <v>367727.8372567098</v>
+        <v>367727.837076383</v>
       </c>
       <c r="I7">
-        <v>227782.4692866678</v>
+        <v>227782.4684829356</v>
       </c>
       <c r="J7">
-        <v>207090.4069871428</v>
+        <v>207090.4068855896</v>
       </c>
       <c r="K7">
-        <v>301618.1579062036</v>
+        <v>301618.1566267167</v>
       </c>
       <c r="L7">
-        <v>241229.0820471707</v>
+        <v>241229.0819288764</v>
       </c>
     </row>
     <row r="8">
@@ -1364,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2090.589623652275</v>
+        <v>2090.587554622183</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1419,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2271.038867584324</v>
+        <v>2270.946737120545</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3537.672427860102</v>
+        <v>3537.550433595975</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1642,28 +1641,28 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.9991797305308278</v>
+        <v>0.9991803256850327</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.998642519922042</v>
+        <v>0.9986425228377389</v>
       </c>
       <c r="H2">
-        <v>0.9996184407579307</v>
+        <v>0.9996184436793387</v>
       </c>
       <c r="I2">
-        <v>0.9952757246827776</v>
+        <v>0.9952827251558378</v>
       </c>
       <c r="J2">
-        <v>0.99089247415474</v>
+        <v>0.990899413104761</v>
       </c>
       <c r="K2">
-        <v>0.9973593420376893</v>
+        <v>0.9973663718515149</v>
       </c>
       <c r="L2">
-        <v>0.9949561027628727</v>
+        <v>0.9949630987405866</v>
       </c>
     </row>
     <row r="3">
@@ -1688,10 +1687,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001357480077957916</v>
+        <v>0.001357477162261206</v>
       </c>
       <c r="H3">
-        <v>0.0003815592420692395</v>
+        <v>0.000381556320661288</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1774,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.004724275317222457</v>
+        <v>0.004717274844162135</v>
       </c>
       <c r="J5">
-        <v>0.009107525845259973</v>
+        <v>0.009100586895238906</v>
       </c>
       <c r="K5">
-        <v>0.002640657962310699</v>
+        <v>0.002633628148485087</v>
       </c>
       <c r="L5">
-        <v>0.00504389723712723</v>
+        <v>0.005036901259413321</v>
       </c>
     </row>
     <row r="6">
@@ -1802,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0008202694691722339</v>
+        <v>0.0008196743149673676</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1839,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9907338927222645</v>
+        <v>0.9907339018081415</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1854,13 +1853,13 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0.9901282145801421</v>
+        <v>0.9901286110664852</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>0.9884069970939526</v>
+        <v>0.9884073921878289</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1879,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009266107277735471</v>
+        <v>0.009266098191858503</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1934,13 +1933,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.009871785419857976</v>
+        <v>0.00987138893351479</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.01159300290604738</v>
+        <v>0.0115926078121711</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2143,34 +2142,34 @@
         </is>
       </c>
       <c r="B2">
-        <v>46990.39</v>
+        <v>49590.03580827155</v>
       </c>
       <c r="C2">
-        <v>4235187</v>
+        <v>4298414.027550477</v>
       </c>
       <c r="D2">
-        <v>11120155.821</v>
+        <v>11272738.08370311</v>
       </c>
       <c r="E2">
-        <v>5516261.7</v>
+        <v>5587578.777980953</v>
       </c>
       <c r="F2">
-        <v>4762126.7</v>
+        <v>4818294.876972948</v>
       </c>
       <c r="G2">
-        <v>7343733</v>
+        <v>7430122.504609279</v>
       </c>
       <c r="H2">
-        <v>1572602.614</v>
+        <v>1595316.945667042</v>
       </c>
       <c r="I2">
-        <v>1715858.56</v>
+        <v>1736852.552056577</v>
       </c>
       <c r="J2">
-        <v>1003186.456</v>
+        <v>1016721.013905245</v>
       </c>
       <c r="K2">
-        <v>727774.4580000001</v>
+        <v>739982.3480328826</v>
       </c>
     </row>
     <row r="3">
@@ -2180,178 +2179,34 @@
         </is>
       </c>
       <c r="B3">
-        <v>3156.28</v>
+        <v>3364.792892090155</v>
       </c>
       <c r="C3">
-        <v>222713.17</v>
+        <v>225616.8142551135</v>
       </c>
       <c r="D3">
-        <v>225160.695</v>
+        <v>232797.9692186056</v>
       </c>
       <c r="E3">
-        <v>311229.56</v>
+        <v>320924.7202635892</v>
       </c>
       <c r="F3">
-        <v>408712.47</v>
+        <v>416020.6509816424</v>
       </c>
       <c r="G3">
-        <v>351978.61</v>
+        <v>367727.837076383</v>
       </c>
       <c r="H3">
-        <v>219427.268</v>
+        <v>230053.4152200561</v>
       </c>
       <c r="I3">
-        <v>201107.077</v>
+        <v>207090.4068855896</v>
       </c>
       <c r="J3">
-        <v>294466.81</v>
+        <v>305155.7070603126</v>
       </c>
       <c r="K3">
-        <v>229604.859</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Compound</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>blk</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>H-12C-C5-A-20uL</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>H-12C-C5-A-40uL</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>H-12C-C5-B</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>H-12C-N5-A</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>H-12C-N5-B</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>H-D2O-C44-A</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>H-D2O-C44-B</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>H-D2O-N44-A</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>H-D2O-N44-B</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>malate</t>
-        </is>
-      </c>
-      <c r="B2">
-        <v>49590.03581525528</v>
-      </c>
-      <c r="C2">
-        <v>4298414.028155819</v>
-      </c>
-      <c r="D2">
-        <v>11272744.80242399</v>
-      </c>
-      <c r="E2">
-        <v>5587578.778767848</v>
-      </c>
-      <c r="F2">
-        <v>4818294.890961792</v>
-      </c>
-      <c r="G2">
-        <v>7430122.526180986</v>
-      </c>
-      <c r="H2">
-        <v>1595328.165921473</v>
-      </c>
-      <c r="I2">
-        <v>1736864.7139496</v>
-      </c>
-      <c r="J2">
-        <v>1016728.179732728</v>
-      </c>
-      <c r="K2">
-        <v>739987.5508337057</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Compound-C5H10O5</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>3364.792893740187</v>
-      </c>
-      <c r="C3">
-        <v>225616.8163167641</v>
-      </c>
-      <c r="D3">
-        <v>232797.9693327654</v>
-      </c>
-      <c r="E3">
-        <v>320924.7204209647</v>
-      </c>
-      <c r="F3">
-        <v>416020.651185651</v>
-      </c>
-      <c r="G3">
-        <v>367727.8372567098</v>
-      </c>
-      <c r="H3">
-        <v>230053.5081542521</v>
-      </c>
-      <c r="I3">
-        <v>207090.4069871428</v>
-      </c>
-      <c r="J3">
-        <v>305155.8303340637</v>
-      </c>
-      <c r="K3">
-        <v>241229.0820471707</v>
+        <v>241229.0819288764</v>
       </c>
     </row>
   </sheetData>
